--- a/ExcelFiles/s3_good_trials_GraspObject_Combined.xlsx
+++ b/ExcelFiles/s3_good_trials_GraspObject_Combined.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macthurston\Documents\GitHub\project_grasp_object_interaction\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A0E466-DC4A-45A4-979D-8C0B97BC5598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8DAED3-4B78-428E-8E9E-738BB14CA34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-3135" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,21 @@
   </si>
   <si>
     <t>pilot</t>
+  </si>
+  <si>
+    <t>20250408a</t>
+  </si>
+  <si>
+    <t>20250408b</t>
+  </si>
+  <si>
+    <t>20250409a</t>
+  </si>
+  <si>
+    <t>20250409b</t>
+  </si>
+  <si>
+    <t>8,39</t>
   </si>
 </sst>
 </file>
@@ -359,15 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
@@ -455,6 +470,147 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20250424</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
